--- a/pred_ohlcv/54_21/2020-01-19 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BTG ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>5170.388910650003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5336.675810650003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5011.800510650003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5440.269510650004</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5069.461110650004</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6185.885622000004</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6577.483422000005</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6050.815122000005</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6149.615622000005</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6678.081983090005</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7086.087883090005</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5775.286683090005</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5324.467083090005</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4414.170683090005</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4776.325007790005</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4517.598307790005</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4567.661407790005</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4509.150907790005</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4487.333207790005</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3855.170407790004</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3909.011307790005</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3045.593007790005</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3057.518307790005</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3080.118307790005</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2386.650507790005</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2706.957707790005</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2733.204307790005</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1716.594407790005</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1821.088607790005</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1825.878407790005</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1786.402407790005</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1840.106207790005</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2033.203342390005</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1891.175942390005</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1884.568242390005</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1775.218542390005</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1816.865442390005</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>668.870225440005</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>522.870225440005</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1928.966244840005</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2510.818544840005</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2630.292233720005</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2630.091033720005</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2197.981133720005</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2216.955633720005</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2375.079833720005</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2294.192233720005</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2319.081922530005</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2382.581422530005</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2244.646422530005</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>4638.005196670005</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>4688.184011990004</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4539.687611720004</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4976.943618800005</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5375.292301170004</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4672.548229070004</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4531.740291350004</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2624.293113030004</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>2624.203742410004</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2394.135942410004</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>2481.541742410004</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2363.500453800004</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>2556.960053800005</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>2330.276282000004</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>2425.010006980004</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>3396.462160160004</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1215.791068750004</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1889.635568750004</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1546.726368750004</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2053.349184760004</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>2134.538584760005</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2879.660798560005</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4036.166598560005</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>24215.86569466001</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>22648.13513498001</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>22024.44634366001</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>23089.36704366001</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>24253.09814366001</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>22198.09164366001</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>22983.89464366001</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>22095.89254366001</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>21176.28174366001</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>20691.60394366001</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>21642.64355799001</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>21642.64355799001</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>21418.16577593001</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>21344.69807593001</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>21344.69807593001</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>20244.80924065001</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>20543.75170537001</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>20170.49560537001</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>21678.23780537001</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>21317.46640537001</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>20874.57860537001</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>20222.06710537001</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>19349.56530537001</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>19313.93090537001</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>19130.76310537001</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>18724.18290537001</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>19409.36377403001</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>18704.76143412001</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>20277.95772561001</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>20176.12372561001</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>20235.24392561002</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>20217.76972561001</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>20229.42652561002</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>20184.84232135002</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-4183.050135609985</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-5370.093091809984</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-5278.229191809984</v>
       </c>
       <c r="H1007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-5247.932591809984</v>
       </c>
       <c r="H1008">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-5430.932591809984</v>
       </c>
       <c r="H1009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-4986.542491809984</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-4986.542491809984</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-4385.831991809984</v>
       </c>
       <c r="H1014">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BTG ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>5170.388910650003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5336.675810650003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5011.800510650003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5440.269510650004</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5069.461110650004</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6185.885622000004</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6577.483422000005</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6050.815122000005</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6149.615622000005</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6678.081983090005</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7086.087883090005</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5775.286683090005</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5324.467083090005</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4414.170683090005</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4776.325007790005</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4517.598307790005</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4567.661407790005</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4509.150907790005</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4487.333207790005</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3855.170407790004</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3909.011307790005</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3045.593007790005</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3057.518307790005</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3080.118307790005</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2386.650507790005</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2706.957707790005</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2733.204307790005</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1716.594407790005</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1821.088607790005</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1825.878407790005</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1786.402407790005</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1840.106207790005</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2059.084942390005</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2033.203342390005</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1964.833242390005</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1891.975942390005</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1891.175942390005</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1884.568242390005</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1775.218542390005</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1816.865442390005</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>668.870225440005</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>522.870225440005</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1928.966244840005</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2510.818544840005</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2630.292233720005</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2630.091033720005</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2210.464133720006</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2197.981133720005</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2216.955633720005</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2453.649833720005</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2375.079833720005</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2294.192233720005</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2502.581922530005</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2319.081922530005</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2382.581422530005</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2244.646422530005</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2058.892222530005</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>4638.005196670005</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>4688.184011990004</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4539.687611720004</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4976.943618800005</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5375.292301170004</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4672.548229070004</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4531.740291350004</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2624.293113030004</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>2624.203742410004</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2394.135942410004</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>2481.541742410004</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2363.500453800004</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>2556.960053800005</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>2330.276282000004</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>2425.010006980004</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>3396.462160160004</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1215.791068750004</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1889.635568750004</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1546.726368750004</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2053.349184760004</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>2134.538584760005</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2879.660798560005</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4036.166598560005</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>24215.86569466001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>22648.13513498001</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>23227.78944366001</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>22024.44634366001</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>23089.36704366001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>24253.09814366001</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>22198.09164366001</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>22983.89464366001</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>22095.89254366001</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>21176.28174366001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>20691.60394366001</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>21642.64355799001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>21642.64355799001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>22051.10094366001</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>21418.16577593001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>21344.69807593001</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>21344.69807593001</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>20963.24767593001</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>20244.80924065001</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>20543.75170537001</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>20170.49560537001</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>21678.23780537001</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>21317.46640537001</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>20874.57860537001</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>20086.98110537001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>20222.06710537001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>19349.56530537001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>19313.93090537001</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>19130.76310537001</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>18724.18290537001</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>19436.72607403001</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>19409.36377403001</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>20277.95772561001</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>20176.12372561001</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>20235.24392561002</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>20217.76972561001</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>20229.42652561002</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>20574.74235399002</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>20184.84232135002</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-4183.050135609985</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-3220.644535609985</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-3198.908835609985</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-5370.093091809984</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-5278.229191809984</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-5247.932591809984</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-5430.932591809984</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-4986.542491809984</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-4986.505491809984</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-4385.831991809984</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-3701.346891809984</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
